--- a/Jogos_do_Dia/2024-03-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -721,10 +721,10 @@
         <v>3.2</v>
       </c>
       <c r="J2">
+        <v>3.4</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="K2">
-        <v>2.87</v>
       </c>
       <c r="L2">
         <v>2.25</v>
@@ -742,16 +742,16 @@
         <v>6.35</v>
       </c>
       <c r="Q2">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S2">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="T2">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U2">
         <v>2.1</v>
@@ -852,13 +852,13 @@
         <v>4.33</v>
       </c>
       <c r="J3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K3">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="M3">
         <v>1.67</v>
@@ -873,16 +873,16 @@
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S3">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="U3">
         <v>2.5</v>
@@ -983,13 +983,13 @@
         <v>4.33</v>
       </c>
       <c r="J4">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="M4">
         <v>1.5</v>
@@ -1010,7 +1010,7 @@
         <v>2.75</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="T4">
         <v>1.53</v>
@@ -1114,13 +1114,13 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="K5">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="M5">
         <v>1.67</v>
@@ -1135,16 +1135,16 @@
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R5">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="S5">
-        <v>2.33</v>
+        <v>2.9</v>
       </c>
       <c r="T5">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U5">
         <v>2.38</v>
@@ -1245,13 +1245,13 @@
         <v>3.75</v>
       </c>
       <c r="J6">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="K6">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="L6">
-        <v>2.9</v>
+        <v>3.28</v>
       </c>
       <c r="M6">
         <v>1.5</v>
@@ -1272,10 +1272,10 @@
         <v>2.75</v>
       </c>
       <c r="S6">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="T6">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U6">
         <v>1.91</v>
@@ -1376,13 +1376,13 @@
         <v>4.5</v>
       </c>
       <c r="J7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1403,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T7">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U7">
         <v>2</v>

--- a/Jogos_do_Dia/2024-03-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -721,13 +721,13 @@
         <v>3.2</v>
       </c>
       <c r="J2">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M2">
         <v>1.57</v>
@@ -748,10 +748,10 @@
         <v>2.5</v>
       </c>
       <c r="S2">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="T2">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U2">
         <v>2.1</v>
@@ -769,10 +769,10 @@
         <v>1.36</v>
       </c>
       <c r="Z2">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AA2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>1.14</v>
@@ -852,13 +852,13 @@
         <v>4.33</v>
       </c>
       <c r="J3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="M3">
         <v>1.67</v>
@@ -876,13 +876,13 @@
         <v>1.67</v>
       </c>
       <c r="R3">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="T3">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U3">
         <v>2.5</v>
@@ -983,13 +983,13 @@
         <v>4.33</v>
       </c>
       <c r="J4">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="L4">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="M4">
         <v>1.5</v>
@@ -1010,10 +1010,10 @@
         <v>2.75</v>
       </c>
       <c r="S4">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="T4">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -1114,13 +1114,13 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="K5">
-        <v>2.97</v>
+        <v>2.65</v>
       </c>
       <c r="L5">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="M5">
         <v>1.67</v>
@@ -1135,16 +1135,16 @@
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R5">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="S5">
-        <v>2.9</v>
+        <v>2.69</v>
       </c>
       <c r="T5">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="U5">
         <v>2.38</v>
@@ -1245,13 +1245,13 @@
         <v>3.75</v>
       </c>
       <c r="J6">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="K6">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="L6">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="M6">
         <v>1.5</v>
@@ -1272,10 +1272,10 @@
         <v>2.75</v>
       </c>
       <c r="S6">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="T6">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U6">
         <v>1.91</v>
@@ -1379,10 +1379,10 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4.14</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1403,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="T7">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U7">
         <v>2</v>
